--- a/DeepLearning_Coaching_1.xlsx
+++ b/DeepLearning_Coaching_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatpradh\Documents\Coaching_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE2B0D-6C4E-4192-BA9E-98D980698D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096CFD3F-4CCD-47A2-B561-ABCE748D6136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1613,9 +1613,6 @@
     <t>Change in error w.r.t. small change in weight .</t>
   </si>
   <si>
-    <t>Undestading</t>
-  </si>
-  <si>
     <t>Matrix Multiplication</t>
   </si>
   <si>
@@ -1709,13 +1706,16 @@
     <t>sigmoid : (0,1)</t>
   </si>
   <si>
-    <t>Relu : (0 , inf )</t>
-  </si>
-  <si>
     <t>Let's say we don't have an activation function .</t>
   </si>
   <si>
     <t>( -∞ , ∞ )</t>
+  </si>
+  <si>
+    <t>Undestanding</t>
+  </si>
+  <si>
+    <t>Relu : (0 , ∞ )</t>
   </si>
 </sst>
 </file>
@@ -12234,8 +12234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W622"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView topLeftCell="A594" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14435,8 +14435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607BDD3E-5B77-4BFC-8438-A2590A402528}">
   <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14968,8 +14968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A577E4-A9DC-4BEE-8A80-BE193C492B32}">
   <dimension ref="A1:W455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="G432" sqref="G432"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="K447" sqref="K447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15327,7 +15327,7 @@
     </row>
     <row r="211" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B211" s="2" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.3">
@@ -15353,175 +15353,175 @@
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="296" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B298" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="300" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="301" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="304" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K304" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="307" spans="3:11" x14ac:dyDescent="0.3">
       <c r="K307" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="319" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C319" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="407" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D407" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="410" spans="4:8" x14ac:dyDescent="0.3">
       <c r="H410" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C418" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C421" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C422" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C423" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C424" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C426" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C427" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D428" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D429" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D430" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C432" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C448" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="450" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="451" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C451" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="453" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="455" spans="2:23" x14ac:dyDescent="0.3">
       <c r="W455" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/DeepLearning_Coaching_1.xlsx
+++ b/DeepLearning_Coaching_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatpradh\Documents\Coaching_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096CFD3F-4CCD-47A2-B561-ABCE748D6136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B6412-830D-427C-A81A-46FBDDCB475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="545">
   <si>
     <t>Deep Learning</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>Extentions</t>
   </si>
   <si>
-    <t>Python Docsting Generator</t>
-  </si>
-  <si>
     <t>Write docstring under functions</t>
   </si>
   <si>
@@ -1562,9 +1559,6 @@
     <t>How much weight we should propagate ?</t>
   </si>
   <si>
-    <t xml:space="preserve"> - It should be propotional .</t>
-  </si>
-  <si>
     <t>Sigmoid Activation Function</t>
   </si>
   <si>
@@ -1595,9 +1589,6 @@
     <t>Activation Function converge the value within a range</t>
   </si>
   <si>
-    <t>Else output will be very high and  solution might diverge and may not reach t othe solution .</t>
-  </si>
-  <si>
     <t>Weight update rule ( General ) :</t>
   </si>
   <si>
@@ -1712,10 +1703,22 @@
     <t>( -∞ , ∞ )</t>
   </si>
   <si>
-    <t>Undestanding</t>
-  </si>
-  <si>
     <t>Relu : (0 , ∞ )</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>Python Docstring Generator</t>
+  </si>
+  <si>
+    <t>Else output will be very high and  solution might diverge and may not reach to the solution .</t>
+  </si>
+  <si>
+    <t>Understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - It should be proportional .</t>
   </si>
 </sst>
 </file>
@@ -12234,8 +12237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W622"/>
   <sheetViews>
-    <sheetView topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="D299" sqref="D299"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L472" sqref="L472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13893,6 +13896,9 @@
       </c>
       <c r="K471" s="3">
         <v>1</v>
+      </c>
+      <c r="L471" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="472" spans="1:23" x14ac:dyDescent="0.3">
@@ -14435,15 +14441,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607BDD3E-5B77-4BFC-8438-A2590A402528}">
   <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K1" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>351</v>
@@ -14673,7 +14679,7 @@
         <v>392</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W47" s="8" t="s">
         <v>391</v>
@@ -14707,7 +14713,7 @@
         <v>397</v>
       </c>
       <c r="E55" t="s">
-        <v>398</v>
+        <v>541</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -14716,13 +14722,13 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" s="3"/>
       <c r="C57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -14736,12 +14742,12 @@
         <v>397</v>
       </c>
       <c r="E60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -14752,115 +14758,115 @@
         <v>397</v>
       </c>
       <c r="E63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K71" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -14871,12 +14877,12 @@
         <v>353</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -14884,7 +14890,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
@@ -14892,7 +14898,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
@@ -14900,12 +14906,12 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D102" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
@@ -14913,7 +14919,7 @@
         <v>4</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
@@ -14933,23 +14939,23 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="3"/>
       <c r="D115" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -14968,8 +14974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A577E4-A9DC-4BEE-8A80-BE193C492B32}">
   <dimension ref="A1:W455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="K447" sqref="K447"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="R174" sqref="R174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14979,132 +14985,132 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="W1" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K52" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
@@ -15114,7 +15120,7 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C64" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
@@ -15122,12 +15128,12 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
@@ -15137,12 +15143,12 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C70" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
@@ -15152,146 +15158,146 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C77" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
+        <v>480</v>
+      </c>
+      <c r="G112" t="s">
         <v>481</v>
       </c>
-      <c r="G112" t="s">
+      <c r="I112" t="s">
         <v>482</v>
-      </c>
-      <c r="I112" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L115" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K129" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H159" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="160" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H160" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.3">
       <c r="R173" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.3">
       <c r="R174" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="8:17" x14ac:dyDescent="0.3">
       <c r="L199" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="8:17" x14ac:dyDescent="0.3">
       <c r="L200" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O200" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="8:17" x14ac:dyDescent="0.3">
       <c r="Q201" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H203" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="204" spans="8:17" x14ac:dyDescent="0.3">
@@ -15299,12 +15305,12 @@
         <v>1</v>
       </c>
       <c r="K204" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="205" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H205" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J205" s="3">
         <v>0</v>
@@ -15312,216 +15318,216 @@
     </row>
     <row r="207" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H207" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="208" spans="8:17" x14ac:dyDescent="0.3">
       <c r="I208" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.3">
       <c r="H209" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B211" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P212" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="222" spans="2:18" x14ac:dyDescent="0.3">
       <c r="Q222" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="R222" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="223" spans="2:18" x14ac:dyDescent="0.3">
       <c r="Q223" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="R223" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="296" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B298" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="300" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="301" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="304" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K304" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="307" spans="3:11" x14ac:dyDescent="0.3">
       <c r="K307" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="319" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C319" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="407" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D407" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="410" spans="4:8" x14ac:dyDescent="0.3">
       <c r="H410" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C418" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C421" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C422" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C423" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C424" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C426" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C427" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D428" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D429" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D430" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C432" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C448" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="450" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="451" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C451" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="453" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="455" spans="2:23" x14ac:dyDescent="0.3">
       <c r="W455" s="8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
